--- a/data/protocols/DNAssembler/assembly_input.xlsx
+++ b/data/protocols/DNAssembler/assembly_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\DNAssembler\DNAssembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\git\automated-protocol-ot2\data\protocols\DNAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5C84AF-5E37-477F-AA31-6071B1318336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19913494-BAF5-4DC4-AE6A-4732E842E543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -199,6 +199,10 @@
   </si>
   <si>
     <t>v1_p15_r22_t16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v5_p1_r222_t1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -711,6 +715,14 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
